--- a/Data/omo_mosquito_summary.xlsx
+++ b/Data/omo_mosquito_summary.xlsx
@@ -19,7 +19,7 @@
   </sheets>
   <calcPr calcId="0"/>
   <pivotCaches>
-    <pivotCache cacheId="3" r:id="rId5"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -1714,7 +1714,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:G9" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="24">
     <pivotField showAll="0"/>
@@ -4909,8 +4909,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Data/omo_mosquito_summary.xlsx
+++ b/Data/omo_mosquito_summary.xlsx
@@ -5,27 +5,28 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\Mosquitoes-modelling-\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\Git in R\Mosquitoes-modelling-\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11316" windowHeight="9324" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11316" windowHeight="9324" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="omo_mosquito_summary" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet4" sheetId="5" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId4"/>
+    <sheet name="Sheet3" sheetId="4" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId5"/>
+    <pivotCache cacheId="0" r:id="rId6"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="75">
   <si>
     <t>Habitat</t>
   </si>
@@ -220,6 +221,36 @@
   </si>
   <si>
     <t>Habitats</t>
+  </si>
+  <si>
+    <t>Habitat (n)</t>
+  </si>
+  <si>
+    <t>Anopheles (%)</t>
+  </si>
+  <si>
+    <t>Culex (%)</t>
+  </si>
+  <si>
+    <t>Aedes (%)</t>
+  </si>
+  <si>
+    <t>Containers (6)</t>
+  </si>
+  <si>
+    <t>Gutters (3)</t>
+  </si>
+  <si>
+    <t>Puddles (5)</t>
+  </si>
+  <si>
+    <t>Tyre track (5)</t>
+  </si>
+  <si>
+    <t>Used tyres (13)</t>
+  </si>
+  <si>
+    <t>%</t>
   </si>
 </sst>
 </file>
@@ -2097,7 +2128,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -2260,6 +2293,194 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C2:I8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="14.21875" customWidth="1"/>
+    <col min="4" max="8" width="12.44140625" customWidth="1"/>
+    <col min="9" max="9" width="12.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H2" t="s">
+        <v>68</v>
+      </c>
+      <c r="I2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <f>(D3/$D$8)*100</f>
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>4</v>
+      </c>
+      <c r="G3">
+        <f>(F3/$F$8)*100</f>
+        <v>2</v>
+      </c>
+      <c r="H3">
+        <v>39</v>
+      </c>
+      <c r="I3">
+        <f>(H3/$H$8)*100</f>
+        <v>11.111111111111111</v>
+      </c>
+    </row>
+    <row r="4" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D4">
+        <v>21</v>
+      </c>
+      <c r="E4">
+        <f t="shared" ref="E4:E7" si="0">(D4/$D$8)*100</f>
+        <v>23.076923076923077</v>
+      </c>
+      <c r="F4">
+        <v>12</v>
+      </c>
+      <c r="G4">
+        <f t="shared" ref="G4:G7" si="1">(F4/$F$8)*100</f>
+        <v>6</v>
+      </c>
+      <c r="H4">
+        <v>2</v>
+      </c>
+      <c r="I4">
+        <f t="shared" ref="I4:I7" si="2">(H4/$H$8)*100</f>
+        <v>0.56980056980056981</v>
+      </c>
+    </row>
+    <row r="5" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D5">
+        <v>25</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>27.472527472527474</v>
+      </c>
+      <c r="F5">
+        <v>25</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="1"/>
+        <v>12.5</v>
+      </c>
+      <c r="H5">
+        <v>160</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="2"/>
+        <v>45.584045584045583</v>
+      </c>
+    </row>
+    <row r="6" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D6">
+        <v>34</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>37.362637362637365</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D7">
+        <v>11</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>12.087912087912088</v>
+      </c>
+      <c r="F7">
+        <v>159</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>79.5</v>
+      </c>
+      <c r="H7">
+        <v>150</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="2"/>
+        <v>42.735042735042732</v>
+      </c>
+    </row>
+    <row r="8" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="D8">
+        <f>SUM(D3:D7)</f>
+        <v>91</v>
+      </c>
+      <c r="F8">
+        <f>SUM(F3:F7)</f>
+        <v>200</v>
+      </c>
+      <c r="H8">
+        <f>SUM(H3:H7)</f>
+        <v>351</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:G9"/>
   <sheetViews>
@@ -2448,7 +2669,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X33"/>
   <sheetViews>
@@ -4905,11 +5126,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>

--- a/Data/omo_mosquito_summary.xlsx
+++ b/Data/omo_mosquito_summary.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11316" windowHeight="9324" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11316" windowHeight="9324" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="omo_mosquito_summary" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="79">
   <si>
     <t>Habitat</t>
   </si>
@@ -251,6 +251,18 @@
   </si>
   <si>
     <t>%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Anopheles</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>SQRT(N)</t>
+  </si>
+  <si>
+    <t>SE</t>
   </si>
 </sst>
 </file>
@@ -734,13 +746,15 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2296,7 +2310,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:I8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
@@ -5128,18 +5142,20 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="7" width="13" customWidth="1"/>
+    <col min="11" max="11" width="15.109375" customWidth="1"/>
+    <col min="18" max="18" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>64</v>
       </c>
@@ -5161,8 +5177,36 @@
       <c r="G1" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="K1" s="4"/>
+      <c r="L1" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -5184,8 +5228,41 @@
       <c r="G2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="K2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2">
+        <v>6.5</v>
+      </c>
+      <c r="M2">
+        <v>11.554220008291344</v>
+      </c>
+      <c r="N2" s="5">
+        <f>M2/$O13</f>
+        <v>4.7169905660283025</v>
+      </c>
+      <c r="O2">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="P2">
+        <v>1.6329931618554521</v>
+      </c>
+      <c r="Q2" s="5">
+        <f>P2/O13</f>
+        <v>0.66666666666666674</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2" s="5">
+        <f>S2/O13</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -5207,8 +5284,41 @@
       <c r="G3">
         <v>10.392304845413264</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="K3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="M3">
+        <v>0.57735026918962584</v>
+      </c>
+      <c r="N3" s="5">
+        <f t="shared" ref="N3:N7" si="0">M3/$O14</f>
+        <v>0.33333333333333337</v>
+      </c>
+      <c r="O3">
+        <v>4</v>
+      </c>
+      <c r="P3">
+        <v>6.9282032302755088</v>
+      </c>
+      <c r="Q3" s="5">
+        <f t="shared" ref="Q3:Q7" si="1">P3/O14</f>
+        <v>4</v>
+      </c>
+      <c r="R3">
+        <v>7</v>
+      </c>
+      <c r="S3">
+        <v>10.392304845413264</v>
+      </c>
+      <c r="T3" s="5">
+        <f t="shared" ref="T3:T7" si="2">S3/O14</f>
+        <v>6.0000000000000009</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -5230,8 +5340,41 @@
       <c r="G4">
         <v>9.5131487952202232</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="K4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="L4">
+        <v>32</v>
+      </c>
+      <c r="M4">
+        <v>68.793168265460778</v>
+      </c>
+      <c r="N4" s="5">
+        <f t="shared" si="0"/>
+        <v>30.765240125830317</v>
+      </c>
+      <c r="O4">
+        <v>5</v>
+      </c>
+      <c r="P4">
+        <v>7.0710678118654755</v>
+      </c>
+      <c r="Q4" s="5">
+        <f t="shared" si="1"/>
+        <v>3.1622776601683791</v>
+      </c>
+      <c r="R4">
+        <v>5</v>
+      </c>
+      <c r="S4">
+        <v>9.5131487952202232</v>
+      </c>
+      <c r="T4" s="5">
+        <f t="shared" si="2"/>
+        <v>4.2544094772365293</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -5253,8 +5396,41 @@
       <c r="G5">
         <v>6.4961527075646863</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="K5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>6.8</v>
+      </c>
+      <c r="S5">
+        <v>6.4961527075646863</v>
+      </c>
+      <c r="T5" s="5">
+        <f t="shared" si="2"/>
+        <v>2.9051678092667901</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -5276,8 +5452,41 @@
       <c r="G6">
         <v>2.1543039806456381</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="K6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L6">
+        <v>11.538461538461538</v>
+      </c>
+      <c r="M6">
+        <v>15.327618779050367</v>
+      </c>
+      <c r="N6" s="5">
+        <f t="shared" si="0"/>
+        <v>4.2511165722023732</v>
+      </c>
+      <c r="O6">
+        <v>12.23076923076923</v>
+      </c>
+      <c r="P6">
+        <v>15.379390138287052</v>
+      </c>
+      <c r="Q6" s="5">
+        <f t="shared" si="1"/>
+        <v>4.2654753637660905</v>
+      </c>
+      <c r="R6">
+        <v>0.84615384615384615</v>
+      </c>
+      <c r="S6">
+        <v>2.1543039806456381</v>
+      </c>
+      <c r="T6" s="5">
+        <f t="shared" si="2"/>
+        <v>0.59749642039646389</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>54</v>
       </c>
@@ -5299,8 +5508,78 @@
       <c r="G7">
         <v>5.837085966528603</v>
       </c>
+      <c r="K7" s="4"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="N12" t="s">
+        <v>76</v>
+      </c>
+      <c r="O12" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="L13" t="s">
+        <v>69</v>
+      </c>
+      <c r="N13">
+        <v>6</v>
+      </c>
+      <c r="O13">
+        <f>SQRT(N13)</f>
+        <v>2.4494897427831779</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="L14" t="s">
+        <v>70</v>
+      </c>
+      <c r="N14">
+        <v>3</v>
+      </c>
+      <c r="O14">
+        <f t="shared" ref="O14:O17" si="3">SQRT(N14)</f>
+        <v>1.7320508075688772</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="L15" t="s">
+        <v>71</v>
+      </c>
+      <c r="N15">
+        <v>5</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="3"/>
+        <v>2.2360679774997898</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="L16" t="s">
+        <v>72</v>
+      </c>
+      <c r="N16">
+        <v>5</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="3"/>
+        <v>2.2360679774997898</v>
+      </c>
+    </row>
+    <row r="17" spans="12:15" x14ac:dyDescent="0.3">
+      <c r="L17" t="s">
+        <v>73</v>
+      </c>
+      <c r="N17">
+        <v>13</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="3"/>
+        <v>3.6055512754639891</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>